--- a/legendre_out/DATA/p2/p2IntegrandSplinePoints0.150000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandSplinePoints0.150000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>1.569793527675808e-119</v>
+        <v>1.541560122578818e-119</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>1.537518585147517e-119</v>
+        <v>1.537245185064278e-119</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>1.516503942905718e-119</v>
+        <v>1.537944479237268e-119</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>1.505757525261252e-119</v>
+        <v>1.543198846095576e-119</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>1.504287256524871e-119</v>
+        <v>1.552549126636989e-119</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>1.51110106100736e-119</v>
+        <v>1.565536161859293e-119</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>1.525206863019529e-119</v>
+        <v>1.581700792760302e-119</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>1.545612586872125e-119</v>
+        <v>1.600583860337762e-119</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>1.571326156875949e-119</v>
+        <v>1.621726205589478e-119</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>1.601355497341829e-119</v>
+        <v>1.644668669513272e-119</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>1.634708532580471e-119</v>
+        <v>1.668952093106872e-119</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>1.670393186902698e-119</v>
+        <v>1.694117317368094e-119</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>1.707417384619345e-119</v>
+        <v>1.719705183294761e-119</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>1.744789050041101e-119</v>
+        <v>1.745256531884595e-119</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>1.781516107478798e-119</v>
+        <v>1.770312204135415e-119</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>1.816606481243224e-119</v>
+        <v>1.794413041045013e-119</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>1.849068095645206e-119</v>
+        <v>1.817099883611204e-119</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>1.877908874995442e-119</v>
+        <v>1.837913572831718e-119</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>1.90216844222705e-119</v>
+        <v>1.856407310987683e-119</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>1.921523871305664e-119</v>
+        <v>1.87238288254583e-119</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>1.936242595860471e-119</v>
+        <v>1.885872290276655e-119</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>1.946614312476311e-119</v>
+        <v>1.896916218675074e-119</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>1.952928717737989e-119</v>
+        <v>1.905555352235979e-119</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>1.955475508230317e-119</v>
+        <v>1.911830375454269e-119</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>1.954544380538096e-119</v>
+        <v>1.91578197282482e-119</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>1.950425031246143e-119</v>
+        <v>1.917450828842534e-119</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>1.943407156939253e-119</v>
+        <v>1.916877628002302e-119</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.933780454202256e-119</v>
+        <v>1.914103054799016e-119</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>1.921834619619951e-119</v>
+        <v>1.909167793727572e-119</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.907859349777149e-119</v>
+        <v>1.902112529282861e-119</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>1.892144341258635e-119</v>
+        <v>1.892977945959761e-119</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>1.874979290649261e-119</v>
+        <v>1.88180472825319e-119</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>1.856653894533815e-119</v>
+        <v>1.868633560658029e-119</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.837457849497082e-119</v>
+        <v>1.85350512766915e-119</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.817646124027248e-119</v>
+        <v>1.83646267436468e-119</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>1.797241260510252e-119</v>
+        <v>1.81756658313882e-119</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>1.77617040866319e-119</v>
+        <v>1.796884269908708e-119</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>1.754360427357499e-119</v>
+        <v>1.774483172036294e-119</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>1.731738175464537e-119</v>
+        <v>1.750430726883452e-119</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>1.708230511855687e-119</v>
+        <v>1.724794371812075e-119</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.6837642954023e-119</v>
+        <v>1.697641544184026e-119</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.658266384975824e-119</v>
+        <v>1.669039681361272e-119</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.631663639447612e-119</v>
+        <v>1.639056220705675e-119</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.603882917689012e-119</v>
+        <v>1.607758599579092e-119</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.574851078571477e-119</v>
+        <v>1.5752142553435e-119</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.544494980966357e-119</v>
+        <v>1.541490625360756e-119</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.512741483745037e-119</v>
+        <v>1.506655146992758e-119</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.479517445778855e-119</v>
+        <v>1.470775257601355e-119</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.444749725939281e-119</v>
+        <v>1.433918394548537e-119</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.408381849869156e-119</v>
+        <v>1.396159105456488e-119</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.370571610928075e-119</v>
+        <v>1.357663347327247e-119</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.331625449687015e-119</v>
+        <v>1.318660491986302e-119</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>1.291852796838009e-119</v>
+        <v>1.27938118688338e-119</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>1.251563083073088e-119</v>
+        <v>1.240056079468204e-119</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>1.21106573908444e-119</v>
+        <v>1.200915817190653e-119</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>1.170670195564096e-119</v>
+        <v>1.162191047500453e-119</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>1.130685883204139e-119</v>
+        <v>1.124112417847378e-119</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>1.091422232696601e-119</v>
+        <v>1.086910575681157e-119</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>1.053188674733668e-119</v>
+        <v>1.050816168451662e-119</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>1.016294640007372e-119</v>
+        <v>1.016059843608621e-119</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>9.810495592097495e-120</v>
+        <v>9.828722486017653e-120</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>9.477542083684905e-120</v>
+        <v>9.51476990522319e-120</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>9.164965148629973e-120</v>
+        <v>9.219245292733281e-120</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>8.87143601362737e-120</v>
+        <v>8.94085705507434e-120</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>8.595523439885087e-120</v>
+        <v>8.678230245596432e-120</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>8.335796188612166e-120</v>
+        <v>8.429989917650638e-120</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>8.090823021016571e-120</v>
+        <v>8.194761124587006e-120</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>7.859172698306335e-120</v>
+        <v>7.971168919755642e-120</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>7.639413981690394e-120</v>
+        <v>7.757838356507535e-120</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>7.430115632376769e-120</v>
+        <v>7.553394488192779e-120</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>7.22984641157353e-120</v>
+        <v>7.356462368161521e-120</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>7.037175080489536e-120</v>
+        <v>7.165667049764673e-120</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>6.850670400332847e-120</v>
+        <v>6.97963358635237e-120</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>6.668901132311792e-120</v>
+        <v>6.796987031275011e-120</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>6.490436037634469e-120</v>
+        <v>6.616352437882749e-120</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>6.313843877509682e-120</v>
+        <v>6.436354859526469e-120</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>6.137693413145517e-120</v>
+        <v>6.255619349556323e-120</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>5.960553405750079e-120</v>
+        <v>6.072770961322469e-120</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>5.780992616532157e-120</v>
+        <v>5.886434748175785e-120</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>5.59757980669985e-120</v>
+        <v>5.695235763466426e-120</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>5.408883737461492e-120</v>
+        <v>5.497799060544794e-120</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>5.213473170025151e-120</v>
+        <v>5.292749692761013e-120</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>5.009916865599667e-120</v>
+        <v>5.078712713466014e-120</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>4.796783585393122e-120</v>
+        <v>4.854313176009935e-120</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>4.572642090613544e-120</v>
+        <v>4.618176133742855e-120</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>4.336061142469851e-120</v>
+        <v>4.368926640015791e-120</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>4.085609502170085e-120</v>
+        <v>4.105189748178838e-120</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>3.82102145678933e-120</v>
+        <v>3.826847166379217e-120</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>3.548089863235533e-120</v>
+        <v>3.540312873784107e-120</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>3.274570006324037e-120</v>
+        <v>3.254116713750029e-120</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>3.008218177694173e-120</v>
+        <v>2.976789615178033e-120</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>2.756790668985308e-120</v>
+        <v>2.716862506969212e-120</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>2.528043771837794e-120</v>
+        <v>2.482866318025681e-120</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>2.329733777890972e-120</v>
+        <v>2.283331977248508e-120</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>2.169616978784346e-120</v>
+        <v>2.126790413538939e-120</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>2.055449666158027e-120</v>
+        <v>2.021772555798818e-120</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>1.994988131651464e-120</v>
+        <v>1.976809332929331e-120</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>1.995988666904339e-120</v>
+        <v>2.000431673831898e-120</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>2.066207563556478e-120</v>
+        <v>2.101170507408129e-120</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>2.213401113247389e-120</v>
+        <v>2.28755676255919e-120</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>8.741982311065555e-128</v>
+        <v>8.794970633839594e-128</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>1.075277720555827e-127</v>
+        <v>1.083743786685323e-127</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>9.865091948497242e-128</v>
+        <v>1.006561624140159e-127</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>1.192474426640822e-127</v>
+        <v>1.201676348451346e-127</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>1.3911613406004e-127</v>
+        <v>1.385991818366211e-127</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>1.371154824595473e-127</v>
+        <v>1.36551368741903e-127</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>2.02619807465011e-127</v>
+        <v>2.03316691975896e-127</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>4.988332153023074e-127</v>
+        <v>5.00798752154538e-127</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>9.672466897460528e-127</v>
+        <v>9.700704636815117e-127</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>1.110675376184284e-126</v>
+        <v>1.114689255604175e-126</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>1.077544541544699e-126</v>
+        <v>1.079841924756041e-126</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>1.012153578491027e-126</v>
+        <v>1.010478416428688e-126</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>9.157579151375462e-127</v>
+        <v>9.133219092695922e-127</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>8.085367597014044e-127</v>
+        <v>8.082529847652843e-127</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>7.215462003916242e-127</v>
+        <v>7.227717501485199e-127</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>6.552537920898821e-127</v>
+        <v>6.557167816913853e-127</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>6.036658245963332e-127</v>
+        <v>6.020099502213697e-127</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>5.725792808816868e-127</v>
+        <v>5.73066140268794e-127</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>5.220169594578717e-127</v>
+        <v>5.233622784360206e-127</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>4.731585190338692e-127</v>
+        <v>4.72510741217927e-127</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>4.473678840414917e-127</v>
+        <v>4.463199605310079e-127</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>4.144754498134342e-127</v>
+        <v>4.136047809291477e-127</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>3.783060774068823e-127</v>
+        <v>3.778001729975586e-127</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>3.465096313355388e-127</v>
+        <v>3.46386087959719e-127</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>3.178483471261534e-127</v>
+        <v>3.180306184583456e-127</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>2.901216399369294e-127</v>
+        <v>2.90447245176231e-127</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>2.613174288180955e-127</v>
+        <v>2.615525526937954e-127</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>2.313469841967707e-127</v>
+        <v>2.313354444012105e-127</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>2.012460091432275e-127</v>
+        <v>2.009963459017483e-127</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>1.720567014508838e-127</v>
+        <v>1.71740161130433e-127</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>1.445240360771246e-127</v>
+        <v>1.443536182676662e-127</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>1.190069026828296e-127</v>
+        <v>1.190802452728762e-127</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>9.58383899771006e-128</v>
+        <v>9.61272696225677e-128</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>7.534831480224896e-128</v>
+        <v>7.571759850621146e-128</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>5.784491642598608e-128</v>
+        <v>5.817754496761286e-128</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>4.362580285516715e-128</v>
+        <v>4.387328180123025e-128</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>3.27003856761244e-128</v>
+        <v>3.28637455855953e-128</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>2.448336365404381e-128</v>
+        <v>2.457357079054144e-128</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>1.832564224381694e-128</v>
+        <v>1.835850480545467e-128</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>1.376986610886972e-128</v>
+        <v>1.376204239157603e-128</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>1.053452814711102e-128</v>
+        <v>1.049986554363815e-128</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>8.344629507194781e-129</v>
+        <v>8.294029011232354e-129</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>6.925171337777609e-129</v>
+        <v>6.866587543952616e-129</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>6.001154787513059e-129</v>
+        <v>5.939595891389831e-129</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>5.308104481644425e-129</v>
+        <v>5.245745513186403e-129</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>4.726113054446678e-129</v>
+        <v>4.663851441520876e-129</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>4.240315054878884e-129</v>
+        <v>4.178900882778832e-129</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>3.838209629449364e-129</v>
+        <v>3.778271084156556e-129</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>3.507295924666586e-129</v>
+        <v>3.449339292850486e-129</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>3.23507308703945e-129</v>
+        <v>3.179482756057485e-129</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>3.009040263076395e-129</v>
+        <v>2.956078720973961e-129</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>2.816696599286027e-129</v>
+        <v>2.766504434796485e-129</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>2.645541242176875e-129</v>
+        <v>2.598137144721557e-129</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>2.484716581645708e-129</v>
+        <v>2.440013943508257e-129</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>2.33150563610224e-129</v>
+        <v>2.289394799608099e-129</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>2.185707700013982e-129</v>
+        <v>2.146081380212226e-129</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>2.0471228045041e-129</v>
+        <v>2.009876096610077e-129</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>1.915550980695564e-129</v>
+        <v>1.880581360090899e-129</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>1.790792259711408e-129</v>
+        <v>1.757999581944002e-129</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>1.672646672674617e-129</v>
+        <v>1.641933173458649e-129</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>1.560914250708333e-129</v>
+        <v>1.532184545924254e-129</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>1.455395024935536e-129</v>
+        <v>1.428556110630077e-129</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>1.355889026479218e-129</v>
+        <v>1.330850278865386e-129</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>1.262196286462504e-129</v>
+        <v>1.23886946191958e-129</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>1.174116836008384e-129</v>
+        <v>1.152416071081927e-129</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>1.091450706239894e-129</v>
+        <v>1.071292517641738e-129</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>1.013997928280035e-129</v>
+        <v>9.953012128882913e-130</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>9.415585332519121e-130</v>
+        <v>9.242445681109673e-130</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>8.739325522785255e-130</v>
+        <v>8.579249945990424e-130</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>8.109200164828832e-130</v>
+        <v>7.961449036418014e-130</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>7.523209569880769e-130</v>
+        <v>7.38706706528612e-130</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>6.979354049171132e-130</v>
+        <v>6.854128145487561e-130</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>6.475633913930278e-130</v>
+        <v>6.360656389915466e-130</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>6.010049475388357e-130</v>
+        <v>5.904675911462745e-130</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>5.580601044776144e-130</v>
+        <v>5.484210823022934e-130</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>5.185288933323781e-130</v>
+        <v>5.097285237488931e-130</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>4.822113452261462e-130</v>
+        <v>4.741923267753703e-130</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>4.489074912819869e-130</v>
+        <v>4.416149026710683e-130</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>4.18417362622919e-130</v>
+        <v>4.117986627252825e-130</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>3.905409903719778e-130</v>
+        <v>3.845460182273245e-130</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>3.650784056521879e-130</v>
+        <v>3.596593804664951e-130</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>3.418296395866078e-130</v>
+        <v>3.369411607321287e-130</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>3.205947232982611e-130</v>
+        <v>3.161937703135253e-130</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>3.011736879101832e-130</v>
+        <v>2.972196204999964e-130</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>2.83366564545402e-130</v>
+        <v>2.798211225808464e-130</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>2.669733843269692e-130</v>
+        <v>2.638006878454025e-130</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>2.517941783779118e-130</v>
+        <v>2.489607275829683e-130</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>2.376289874497287e-130</v>
+        <v>2.35103662655851e-130</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>2.243122551703973e-130</v>
+        <v>2.220661186137638e-130</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>2.11790098112478e-130</v>
+        <v>2.097957506223184e-130</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>2.000312521113492e-130</v>
+        <v>1.982627028042497e-130</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>1.890044530024051e-130</v>
+        <v>1.874371192823087e-130</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>1.786784366210239e-130</v>
+        <v>1.772891441792299e-130</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>1.690219388025893e-130</v>
+        <v>1.677889216177538e-130</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>1.60003695382481e-130</v>
+        <v>1.589065957206166e-130</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>1.515924421960905e-130</v>
+        <v>1.506123106105666e-130</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>1.437569150787976e-130</v>
+        <v>1.428762104103399e-130</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>1.364658498659857e-130</v>
+        <v>1.356684392426768e-130</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>1.296879823930355e-130</v>
+        <v>1.289591412303144e-130</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>1.233920484953367e-130</v>
+        <v>1.227184604959992e-130</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>1.175467840082699e-130</v>
+        <v>1.169165411624681e-130</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>1.121209247672163e-130</v>
+        <v>1.115235273524591e-130</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>1.070832066075644e-130</v>
+        <v>1.065095631887173e-130</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>1.024023653646952e-130</v>
+        <v>1.018447927939804e-130</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>9.804713687399254e-131</v>
+        <v>9.749936029098859e-131</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>9.398625697083813e-131</v>
+        <v>9.344340980248034e-131</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>9.018846149061928e-131</v>
+        <v>8.964708545119953e-131</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>8.662248626871775e-131</v>
+        <v>8.608053135988452e-131</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>8.325706714051567e-131</v>
+        <v>8.271389165127407e-131</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>8.006093994139969e-131</v>
+        <v>7.951731044811138e-131</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>7.70028405067519e-131</v>
+        <v>7.646093187313519e-131</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>7.405150467195589e-131</v>
+        <v>7.351490004908567e-131</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>7.117566827239406e-131</v>
+        <v>7.064935909870182e-131</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>6.834406714345257e-131</v>
+        <v>6.783445314472642e-131</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>6.553159316602149e-131</v>
+        <v>6.504618901129416e-131</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>6.274602916571152e-131</v>
+        <v>6.229189716809753e-131</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>6.00060977026413e-131</v>
+        <v>5.958932652580533e-131</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>5.733052870420482e-131</v>
+        <v>5.695623301130067e-131</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>5.473805209779721e-131</v>
+        <v>5.441037255146781e-131</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>5.224739781081256e-131</v>
+        <v>5.196950107319002e-131</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>4.987729577064836e-131</v>
+        <v>4.965137450335382e-131</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>4.764647590469863e-131</v>
+        <v>4.747374876884238e-131</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>4.557366814035765e-131</v>
+        <v>4.545437979653913e-131</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>4.367760240502249e-131</v>
+        <v>4.361102351333022e-131</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>4.197700862608738e-131</v>
+        <v>4.196143584609902e-131</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>4.049061673094751e-131</v>
+        <v>4.052337272172983e-131</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>3.923715664699755e-131</v>
+        <v>3.931459006710647e-131</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>3.823535830163382e-131</v>
+        <v>3.835284380911433e-131</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>3.750395162225091e-131</v>
+        <v>3.765588987463716e-131</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>3.706166653624386e-131</v>
+        <v>3.724148419055913e-131</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>3.692723297100827e-131</v>
+        <v>3.712738268376492e-131</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>3.711579849252693e-131</v>
+        <v>3.732786927690885e-131</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>3.760445667829658e-131</v>
+        <v>3.782034618424622e-131</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>3.834735425593349e-131</v>
+        <v>3.855997566412654e-131</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>3.929832151994394e-131</v>
+        <v>3.950161328973563e-131</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>4.041118876483523e-131</v>
+        <v>4.06001146342602e-131</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>4.16397862851143e-131</v>
+        <v>4.181033527088674e-131</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>4.293794437528876e-131</v>
+        <v>4.308713077280229e-131</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>4.425949332986439e-131</v>
+        <v>4.438535671319214e-131</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>4.555826344334875e-131</v>
+        <v>4.565986866524331e-131</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>4.678808501024937e-131</v>
+        <v>4.686552220214281e-131</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>4.79027883250721e-131</v>
+        <v>4.795717289707598e-131</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>4.885620368232449e-131</v>
+        <v>4.888967632322987e-131</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>4.960216137651382e-131</v>
+        <v>4.96178880537912e-131</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>5.009688240404997e-131</v>
+        <v>5.009898414265482e-131</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>5.03258729996389e-131</v>
+        <v>5.031856569763991e-131</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>5.029426724675028e-131</v>
+        <v>5.028128515385495e-131</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>5.000756098277353e-131</v>
+        <v>4.999214607466538e-131</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>4.947125004509846e-131</v>
+        <v>4.945615202343699e-131</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>4.86908302711146e-131</v>
+        <v>4.867830656353535e-131</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>4.76717974982115e-131</v>
+        <v>4.7663613258326e-131</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>4.641964756377814e-131</v>
+        <v>4.641707567117392e-131</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>4.493987630520522e-131</v>
+        <v>4.494369736544585e-131</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>4.323797955988181e-131</v>
+        <v>4.324848190450683e-131</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>4.131945316519658e-131</v>
+        <v>4.133643285172154e-131</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>3.918979295854083e-131</v>
+        <v>3.921255377045728e-131</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>3.685449477730333e-131</v>
+        <v>3.688184822407885e-131</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>3.432071763935195e-131</v>
+        <v>3.435101228892761e-131</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>3.161928189916362e-131</v>
+        <v>3.165082067848512e-131</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>2.879861569163368e-131</v>
+        <v>2.8829966424312e-131</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>2.590756638279078e-131</v>
+        <v>2.593756918282551e-131</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>2.299498133866344e-131</v>
+        <v>2.302274861044273e-131</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>2.010970792528413e-131</v>
+        <v>2.013462436358475e-131</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>1.730059350868135e-131</v>
+        <v>1.732231609866867e-131</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>1.461648545488494e-131</v>
+        <v>1.463494347211291e-131</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>1.210623112992363e-131</v>
+        <v>1.21216261403348e-131</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>9.818677899829528e-132</v>
+        <v>9.831483759755048e-132</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>7.802673130631288e-132</v>
+        <v>7.8136359867909e-132</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>6.107064188358051e-132</v>
+        <v>6.117202477860087e-132</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>4.780698439041184e-132</v>
+        <v>4.791302889382578e-132</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>3.872423248709678e-132</v>
+        <v>3.885056877775955e-132</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>3.417040482856747e-132</v>
+        <v>3.433392961292491e-132</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>3.252808761775915e-132</v>
+        <v>3.272658458391573e-132</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>3.073363622830784e-132</v>
+        <v>3.09307800956015e-132</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>2.56942686935854e-132</v>
+        <v>2.581935143359733e-132</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>1.668118530723106e-132</v>
+        <v>1.666884138893089e-132</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>9.173206378133733e-133</v>
+        <v>9.067527289070358e-133</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>6.352007749162297e-133</v>
+        <v>6.254080002973725e-133</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>5.985337726865743e-133</v>
+        <v>5.939664440886307e-133</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>5.674659776042322e-133</v>
+        <v>5.667198993952467e-133</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>4.929665247555542e-133</v>
+        <v>4.936632863491668e-133</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>3.940106483645868e-133</v>
+        <v>3.945368800602172e-133</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>2.896569794140465e-133</v>
+        <v>2.891664852688176e-133</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>1.984330328849794e-133</v>
+        <v>1.968275357750368e-133</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>1.283933883710608e-133</v>
+        <v>1.259428469693899e-133</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>7.800511045261e-134</v>
+        <v>7.500013600227998e-134</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>4.538166503876424e-134</v>
+        <v>4.212070208047514e-134</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>2.863651803870017e-134</v>
+        <v>2.542584441078321e-134</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>2.588313536154731e-134</v>
+        <v>2.303686219996444e-134</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>3.523498291645368e-134</v>
+        <v>3.307505465479779e-134</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>5.480552661257816e-134</v>
+        <v>5.366172098207359e-134</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>8.270823235905044e-134</v>
+        <v>8.291816038855156e-134</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>1.184789870659395e-133</v>
+        <v>1.203184746377629e-133</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>1.781701900023768e-133</v>
+        <v>1.810448998173893e-133</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>2.79265961606027e-133</v>
+        <v>2.815553133936842e-133</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>3.937040780301884e-133</v>
+        <v>3.945637035402231e-133</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>4.799612116858983e-133</v>
+        <v>4.798632879175866e-133</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>5.223393323300173e-133</v>
+        <v>5.223151931945397e-133</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>5.380460694082097e-133</v>
+        <v>5.387211134949334e-133</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>5.464242186876418e-133</v>
+        <v>5.479552868321722e-133</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>5.668151619957828e-133</v>
+        <v>5.688905652643689e-133</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>6.110952311132375e-133</v>
+        <v>6.130824975468636e-133</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>6.662502439862819e-133</v>
+        <v>6.676887465609271e-133</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>7.140846727070179e-133</v>
+        <v>7.147881774713335e-133</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>7.364029893675501e-133</v>
+        <v>7.364596554428589e-133</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>7.168250365008624e-133</v>
+        <v>7.165799501525607e-133</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>6.633838810273709e-133</v>
+        <v>6.632041726766373e-133</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>6.015917853980329e-133</v>
+        <v>6.016984598784966e-133</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>5.573408640981068e-133</v>
+        <v>5.57805146047201e-133</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>5.501703727173819e-133</v>
+        <v>5.509415556011334e-133</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>5.723446630732543e-133</v>
+        <v>5.733696741701384e-133</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>6.088098314367517e-133</v>
+        <v>6.100653128713611e-133</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>6.445118845873065e-133</v>
+        <v>6.460041937226559e-133</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>6.643968681711687e-133</v>
+        <v>6.66162077470592e-133</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>6.576330397927185e-133</v>
+        <v>6.597219343647133e-133</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>6.292275614611499e-133</v>
+        <v>6.316493599205255e-133</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>5.879009627909918e-133</v>
+        <v>5.906101228405098e-133</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>5.423737733967702e-133</v>
+        <v>5.452699918271448e-133</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>5.010381986819695e-133</v>
+        <v>5.039694363839944e-133</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>4.671319143245172e-133</v>
+        <v>4.699418875017246e-133</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>4.397971919140475e-133</v>
+        <v>4.423631050509593e-133</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>4.180633231619134e-133</v>
+        <v>4.202969099631197e-133</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>4.009595997794957e-133</v>
+        <v>4.028071231696557e-133</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>3.875153134781456e-133</v>
+        <v>3.889575656019864e-133</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>3.767597559692244e-133</v>
+        <v>3.778120581915421e-133</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>3.677222189640903e-133</v>
+        <v>3.684344218697491e-133</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>3.594339888931875e-133</v>
+        <v>3.598903482397588e-133</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>3.51186174224928e-133</v>
+        <v>3.514891931595203e-133</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>3.427847437365919e-133</v>
+        <v>3.430231547218711e-133</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>3.340962760469959e-133</v>
+        <v>3.343412716632958e-133</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>3.249873497749453e-133</v>
+        <v>3.252925827202671e-133</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>3.153245435392497e-133</v>
+        <v>3.157261266292625e-133</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>3.049744359587135e-133</v>
+        <v>3.054909421267539e-133</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>2.93803605652155e-133</v>
+        <v>2.944360679492273e-133</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>2.816786312383792e-133</v>
+        <v>2.824105428331555e-133</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>2.684665796932816e-133</v>
+        <v>2.692639282595193e-133</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>2.541355026562663e-133</v>
+        <v>2.549538811568787e-133</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>2.388775237234161e-133</v>
+        <v>2.396779083241182e-133</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>2.229148939258434e-133</v>
+        <v>2.236657654032711e-133</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>2.064698642946528e-133</v>
+        <v>2.071472080363632e-133</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>1.897646858609716e-133</v>
+        <v>1.903519918654427e-133</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>1.730216096559046e-133</v>
+        <v>1.735098725325355e-133</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>1.564628867105568e-133</v>
+        <v>1.568506056796676e-133</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>1.403107680560555e-133</v>
+        <v>1.406039469488872e-133</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>1.247822635720849e-133</v>
+        <v>1.249940868477282e-133</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>1.100146700068159e-133</v>
+        <v>1.101605752652673e-133</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>9.6083254260671e-134</v>
+        <v>9.617709785245047e-134</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>8.306164863186861e-134</v>
+        <v>8.311560461467894e-134</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>7.102348541860807e-134</v>
+        <v>7.104804555733482e-134</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>6.004239691909056e-134</v>
+        <v>6.004637068580203e-134</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>5.019201543153184e-134</v>
+        <v>5.018253000547912e-134</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>4.154597325413252e-134</v>
+        <v>4.152847352174946e-134</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>3.417790268509849e-134</v>
+        <v>3.415615124000167e-134</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>2.812414512578849e-134</v>
+        <v>2.810044786927823e-134</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>2.326725191613807e-134</v>
+        <v>2.324338844820071e-134</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>1.945013461315318e-134</v>
+        <v>1.942759804312922e-134</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>1.651570473326339e-134</v>
+        <v>1.64957016800929e-134</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>1.430687379289741e-134</v>
+        <v>1.429032438512005e-134</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>1.26665533084867e-134</v>
+        <v>1.265409118424175e-134</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>1.143765479645968e-134</v>
+        <v>1.142962710348601e-134</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>1.046308977324549e-134</v>
+        <v>1.045955716888157e-134</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>9.586049318240432e-135</v>
+        <v>9.586786330761493e-135</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>8.702157187590743e-135</v>
+        <v>8.706719985826175e-135</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>7.820830794634644e-135</v>
+        <v>7.828704267100412e-135</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>6.966401935125991e-135</v>
+        <v>6.977018966972754e-135</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>6.163202404817433e-135</v>
+        <v>6.175943877830559e-135</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>5.435563999462026e-135</v>
+        <v>5.449758792061567e-135</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>4.807818514812557e-135</v>
+        <v>4.822743502053274e-135</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>4.304297746622656e-135</v>
+        <v>4.319177800194005e-135</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>3.949333490645065e-135</v>
+        <v>3.963341478871201e-135</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>3.766831380172546e-135</v>
+        <v>3.779090010260462e-135</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>3.756824037816465e-135</v>
+        <v>3.766509055958232e-135</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>3.883284905805206e-135</v>
+        <v>3.889780976599813e-135</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>4.107193327161196e-135</v>
+        <v>4.110106976738821e-135</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>4.389528644907036e-135</v>
+        <v>4.388688260929053e-135</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>4.691270202064928e-135</v>
+        <v>4.686726033723903e-135</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>4.973397341657457e-135</v>
+        <v>4.96542149967715e-135</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>5.196889406707171e-135</v>
+        <v>5.185975863342532e-135</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>5.322725740236324e-135</v>
+        <v>5.3095903292735e-135</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>5.319381272606906e-135</v>
+        <v>5.304917148846364e-135</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>5.194559831581107e-135</v>
+        <v>5.179604363639048e-135</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>4.968755664075918e-135</v>
+        <v>4.954014430749821e-135</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>4.662470056002612e-135</v>
+        <v>4.648516804443908e-135</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>4.296204293272186e-135</v>
+        <v>4.283480938986246e-135</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>3.890459661795708e-135</v>
+        <v>3.87927628864185e-135</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>3.46573744748405e-135</v>
+        <v>3.456272307675546e-135</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>3.042538936248676e-135</v>
+        <v>3.034838450352739e-135</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>2.641365090768142e-135</v>
+        <v>2.635343849752394e-135</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>2.278384468811608e-135</v>
+        <v>2.273852663558975e-135</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>1.954572212219407e-135</v>
+        <v>1.951331826759628e-135</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>1.667574737013653e-135</v>
+        <v>1.665440623500416e-135</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>1.41503845921663e-135</v>
+        <v>1.41383833792757e-135</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>1.194609794850532e-135</v>
+        <v>1.194184254187231e-135</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>1.003935159937841e-135</v>
+        <v>1.004137656425827e-135</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>8.406609705007368e-136</v>
+        <v>8.413578287894858e-136</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>7.024336425615039e-136</v>
+        <v>7.035040554244384e-136</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>5.868995921423811e-136</v>
+        <v>5.882356204768706e-136</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>4.917052352657567e-136</v>
+        <v>4.932118080931173e-136</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>4.144969879538587e-136</v>
+        <v>4.160919024193537e-136</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>3.529212662289485e-136</v>
+        <v>3.545351876017882e-136</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>3.046244861133655e-136</v>
+        <v>3.062009477867071e-136</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>2.672530636293642e-136</v>
+        <v>2.687484671203118e-136</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>2.384534147992185e-136</v>
+        <v>2.39837029748823e-136</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>2.15871955645239e-136</v>
+        <v>2.171259198184984e-136</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>1.971551021896959e-136</v>
+        <v>1.982744214755551e-136</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>1.801713816878936e-136</v>
+        <v>1.81162659319873e-136</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>1.642730766291063e-136</v>
+        <v>1.651460240804597e-136</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>1.494204074299138e-136</v>
+        <v>1.501843661790224e-136</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>1.355754311665894e-136</v>
+        <v>1.362393621887616e-136</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>1.227002049154136e-136</v>
+        <v>1.23272688682885e-136</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>1.10756785752662e-136</v>
+        <v>1.112460222345951e-136</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>9.970723075462565e-137</v>
+        <v>1.001210394171105e-136</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>8.951359699757965e-137</v>
+        <v>8.985941680363326e-137</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>8.013794155780059e-137</v>
+        <v>8.042283096736714e-137</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>7.154232151157742e-137</v>
+        <v>7.177295848152834e-137</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>6.368879393518628e-137</v>
+        <v>6.387147591932017e-137</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>5.653941590490473e-137</v>
+        <v>5.668005985394735e-137</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>5.005624449701977e-137</v>
+        <v>5.016038685862404e-137</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>4.420133678780856e-137</v>
+        <v>4.427413350655462e-137</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>3.893674985354946e-137</v>
+        <v>3.898297637094457e-137</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>3.422454077052976e-137</v>
+        <v>3.424859202500842e-137</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>3.002676661502154e-137</v>
+        <v>3.003265704194537e-137</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>2.630548446330979e-137</v>
+        <v>2.629684799496762e-137</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>2.302275139167783e-137</v>
+        <v>2.300284145728566e-137</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>2.014062447640028e-137</v>
+        <v>2.011231400210127e-137</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>1.762116079376293e-137</v>
+        <v>1.758694220262744e-137</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>1.54264174200418e-137</v>
+        <v>1.538840263206736e-137</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>1.351845143151984e-137</v>
+        <v>1.347837186363114e-137</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>1.185931990447897e-137</v>
+        <v>1.181852647052789e-137</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>1.041107991519674e-137</v>
+        <v>1.037054302596234e-137</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>9.135788539955285e-138</v>
+        <v>9.096098103143796e-138</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>7.997030584058615e-138</v>
+        <v>7.958414305520853e-138</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>6.976203149430832e-138</v>
+        <v>6.938739913093022e-138</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>6.066220095133213e-138</v>
+        <v>6.029977926387792e-138</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>5.260188350369554e-138</v>
+        <v>5.225226728932111e-138</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>4.551214844341527e-138</v>
+        <v>4.517584704250805e-138</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>3.932406506253025e-138</v>
+        <v>3.900150235870919e-138</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>3.396870265307617e-138</v>
+        <v>3.366021707319169e-138</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>2.937713050707461e-138</v>
+        <v>2.908297502120871e-138</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>2.548041791656197e-138</v>
+        <v>2.520076003802815e-138</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>2.220963417357215e-138</v>
+        <v>2.194455595891539e-138</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>1.949584857013049e-138</v>
+        <v>1.924534661912733e-138</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>1.727013039827323e-138</v>
+        <v>1.703411585393171e-138</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>1.546354895002759e-138</v>
+        <v>1.524184749858728e-138</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>1.400717351742701e-138</v>
+        <v>1.3799525388359e-138</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>1.283207339250364e-138</v>
+        <v>1.263813335851051e-138</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>1.186931786728661e-138</v>
+        <v>1.168865524430248e-138</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>1.10499762338083e-138</v>
+        <v>1.088207488099881e-138</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>1.030617593196254e-138</v>
+        <v>1.015043586136696e-138</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>9.600617537195395e-139</v>
+        <v>9.456401421222222e-139</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>8.930501681814997e-139</v>
+        <v>8.79718733432415e-139</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>8.294876127067962e-139</v>
+        <v>8.17185931320169e-139</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>7.692788634199191e-139</v>
+        <v>7.579483070382095e-139</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>7.123286964455822e-139</v>
+        <v>7.019124318394817e-139</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>6.585418879082879e-139</v>
+        <v>6.489848769767241e-139</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>6.078232139326946e-139</v>
+        <v>5.990722137028267e-139</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>5.600774506434484e-139</v>
+        <v>5.520810132706691e-139</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>5.152093741650689e-139</v>
+        <v>5.079178469330054e-139</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>4.731237606222052e-139</v>
+        <v>4.664892859427176e-139</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>4.337253861394969e-139</v>
+        <v>4.277019015526784e-139</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>3.969190268414781e-139</v>
+        <v>3.914622650156563e-139</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>3.626094588527905e-139</v>
+        <v>3.576769475845261e-139</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>3.30701458298067e-139</v>
+        <v>3.262525205121537e-139</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>3.010998013018552e-139</v>
+        <v>2.97095555051321e-139</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>2.737092639887898e-139</v>
+        <v>2.701126224548959e-139</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>2.484346224834982e-139</v>
+        <v>2.452102939757386e-139</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>2.251806529105395e-139</v>
+        <v>2.222951408666428e-139</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>2.038521313945611e-139</v>
+        <v>2.012737343804887e-139</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>1.843538340601297e-139</v>
+        <v>1.820526457700769e-139</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>1.665905370318705e-139</v>
+        <v>1.645384462882658e-139</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>1.504670164344022e-139</v>
+        <v>1.486377071879076e-139</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>1.358880483923012e-139</v>
+        <v>1.342569997218123e-139</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>1.227584090301876e-139</v>
+        <v>1.213028951428336e-139</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>1.109828744726765e-139</v>
+        <v>1.096819647038197e-139</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>1.004662208443519e-139</v>
+        <v>9.930077965758866e-140</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>9.111322426983011e-140</v>
+        <v>9.006591125698985e-140</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>8.28286608737232e-140</v>
+        <v>8.188393075486887e-140</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>7.551730678062137e-140</v>
+        <v>7.466140940404962e-140</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>6.908393811513762e-140</v>
+        <v>6.830491845737845e-140</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>6.343333100188178e-140</v>
+        <v>6.272102916769868e-140</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>5.847026156544888e-140</v>
+        <v>5.78163127878389e-140</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>5.40995059304531e-140</v>
+        <v>5.349734057064671e-140</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>5.022584022149169e-140</v>
+        <v>4.967068376895293e-140</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>4.675663623425197e-140</v>
+        <v>4.624544860934924e-140</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>4.363892203619971e-140</v>
+        <v>4.316947026555375e-140</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>4.08506766747933e-140</v>
+        <v>4.042081113169348e-140</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>3.837070021575763e-140</v>
+        <v>3.797833542142135e-140</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>3.617779272481647e-140</v>
+        <v>3.582090734838921e-140</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>3.425075426768782e-140</v>
+        <v>3.392739112624319e-140</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>3.256838491009571e-140</v>
+        <v>3.227665096863539e-140</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>3.110948471776329e-140</v>
+        <v>3.084755108921698e-140</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>2.985285375640988e-140</v>
+        <v>2.961895570163545e-140</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>2.877729209175971e-140</v>
+        <v>2.856972901954305e-140</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>2.786159978953279e-140</v>
+        <v>2.767873525658792e-140</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>2.708457691545208e-140</v>
+        <v>2.692483862642111e-140</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>2.642502353524009e-140</v>
+        <v>2.628690334269314e-140</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>2.586173971461754e-140</v>
+        <v>2.57437936190529e-140</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>2.537352551930704e-140</v>
+        <v>2.527437366915102e-140</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>2.493918101503085e-140</v>
+        <v>2.485750770663787e-140</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>2.453750626751018e-140</v>
+        <v>2.447205994516274e-140</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>2.414730134246733e-140</v>
+        <v>2.409689459837603e-140</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>2.374736630562462e-140</v>
+        <v>2.371087587992811e-140</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>2.331650122270327e-140</v>
+        <v>2.329286800346832e-140</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>2.283350615942557e-140</v>
+        <v>2.282173518264702e-140</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>2.227718118151398e-140</v>
+        <v>2.227634163111472e-140</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>2.162877438843005e-140</v>
+        <v>2.163799467426663e-140</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>2.08958602605587e-140</v>
+        <v>2.091427508683829e-140</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>2.010203759662165e-140</v>
+        <v>2.012875574355273e-140</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>1.927113225302504e-140</v>
+        <v>1.93052361202973e-140</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>1.842697008617793e-140</v>
+        <v>1.846751569296228e-140</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>1.759337695248637e-140</v>
+        <v>1.763939393743493e-140</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>1.679417870835876e-140</v>
+        <v>1.684467032960483e-140</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>1.605320121020331e-140</v>
+        <v>1.610714434536141e-140</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>1.539427031442628e-140</v>
+        <v>1.545061546059213e-140</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>1.484121187743599e-140</v>
+        <v>1.48988831511865e-140</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>1.441785175564033e-140</v>
+        <v>1.447574689303366e-140</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>1.414801580544615e-140</v>
+        <v>1.420500616202162e-140</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>1.40555298832615e-140</v>
+        <v>1.411046043403963e-140</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>1.415809746147727e-140</v>
+        <v>1.420981075909555e-140</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>1.443133803702509e-140</v>
+        <v>1.447883889490591e-140</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>1.483317968752479e-140</v>
+        <v>1.487570441000279e-140</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>1.532148926838014e-140</v>
+        <v>1.53585058902772e-140</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>1.585413363499384e-140</v>
+        <v>1.58853419216191e-140</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>1.638897964276843e-140</v>
+        <v>1.641431108991829e-140</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>1.688389414710794e-140</v>
+        <v>1.690351198106603e-140</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>1.729674400341488e-140</v>
+        <v>1.731104318095208e-140</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>1.758539606709208e-140</v>
+        <v>1.759500327546653e-140</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>1.77156565523323e-140</v>
+        <v>1.772138627257201e-140</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>1.768958854584016e-140</v>
+        <v>1.769224240581391e-140</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>1.751959915395798e-140</v>
+        <v>1.751990868417213e-140</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>1.721809626359262e-140</v>
+        <v>1.721672289287148e-140</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>1.679748776165177e-140</v>
+        <v>1.679502281713759e-140</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>1.627018153504186e-140</v>
+        <v>1.626714624219482e-140</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>1.564858547067039e-140</v>
+        <v>1.564543095326861e-140</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>1.49451074554452e-140</v>
+        <v>1.494221473558473e-140</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>1.41721553762722e-140</v>
+        <v>1.416983537436703e-140</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>1.334213712005917e-140</v>
+        <v>1.334063065484123e-140</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>1.246746057371409e-140</v>
+        <v>1.246693836223324e-140</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>1.156053362414256e-140</v>
+        <v>1.15610962817666e-140</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>1.063376415825253e-140</v>
+        <v>1.063544219866719e-140</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>9.699560062952027e-141</v>
+        <v>9.702313898160966e-141</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>8.770329225146527e-141</v>
+        <v>8.774049165471361e-141</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>7.858479531744061e-141</v>
+        <v>7.862985785824326e-141</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>6.976418869652578e-141</v>
+        <v>6.981461544445753e-141</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>6.135595878239928e-141</v>
+        <v>6.140866226518368e-141</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>5.341028331358751e-141</v>
+        <v>5.34623415575023e-141</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>4.595090605543354e-141</v>
+        <v>4.599987253245246e-141</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>3.90014895098751e-141</v>
+        <v>3.904539409050803e-141</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>3.258569617887587e-141</v>
+        <v>3.262304513216893e-141</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>2.67271885643755e-141</v>
+        <v>2.675696455791093e-141</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>2.144962916833119e-141</v>
+        <v>2.147129126822749e-141</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>1.677668049269809e-141</v>
+        <v>1.679016416360992e-141</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>1.273200503941897e-141</v>
+        <v>1.273772214453719e-141</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>9.33926531044951e-142</v>
+        <v>9.338104111501162e-142</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>6.622068935872843e-142</v>
+        <v>6.615393765995954e-142</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>4.57363038452465e-142</v>
+        <v>4.56310045579909e-142</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>3.106352518207815e-142</v>
+        <v>3.093440153585955e-142</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>2.119355742042495e-142</v>
+        <v>2.105267190393649e-142</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>1.511760461146439e-142</v>
+        <v>1.497435897256865e-142</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>1.182687080640389e-142</v>
+        <v>1.168800605213291e-142</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>1.031256005643281e-142</v>
+        <v>1.018215645298805e-142</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>9.569212586630345e-143</v>
+        <v>9.44869850975192e-143</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>8.92280656260847e-143</v>
+        <v>8.811837752745547e-143</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>8.307421272098573e-143</v>
+        <v>8.205494035526095e-143</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>7.722278134921595e-143</v>
+        <v>7.628902156051232e-143</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>7.166598570898365e-143</v>
+        <v>7.081296912278525e-143</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>6.639603999848227e-143</v>
+        <v>6.561913102164067e-143</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>6.140515841592036e-143</v>
+        <v>6.069985523665453e-143</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>5.668555515950553e-143</v>
+        <v>5.60474897474017e-143</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>5.222944442743268e-143</v>
+        <v>5.165438253344463e-143</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>4.80290404179096e-143</v>
+        <v>4.751288157435845e-143</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>4.40765573291432e-143</v>
+        <v>4.361533484971743e-143</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>4.036420935932982e-143</v>
+        <v>3.995409033908537e-143</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>3.68842107066765e-143</v>
+        <v>3.652149602203669e-143</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>3.362877556938954e-143</v>
+        <v>3.330989987814506e-143</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>3.059011814566651e-143</v>
+        <v>3.031164988697549e-143</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>2.776045263371634e-143</v>
+        <v>2.751909402810428e-143</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>2.513199323173735e-143</v>
+        <v>2.492458028109718e-143</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>2.269695413793563e-143</v>
+        <v>2.252045662552765e-143</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>2.044754955051656e-143</v>
+        <v>2.029907104096846e-143</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>1.837599366767951e-143</v>
+        <v>1.825277150698642e-143</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>1.647450068763002e-143</v>
+        <v>1.637390600315445e-143</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>1.473528480857304e-143</v>
+        <v>1.465482250904485e-143</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>1.315056022870885e-143</v>
+        <v>1.308786900422538e-143</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>1.171254114624254e-143</v>
+        <v>1.166539346826847e-143</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>1.041344175937863e-143</v>
+        <v>1.037974388074606e-143</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>9.245476266318238e-144</v>
+        <v>9.223268221226666e-144</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>8.200858865266903e-144</v>
+        <v>8.188314469283219e-144</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>7.27180375442619e-144</v>
+        <v>7.267230604484692e-144</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>6.450525132000516e-144</v>
+        <v>6.452364606402896e-144</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>5.729237196193927e-144</v>
+        <v>5.736064454609271e-144</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>5.100154145208559e-144</v>
+        <v>5.11067812867336e-144</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>4.555490177248538e-144</v>
+        <v>4.568553608166681e-144</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>4.087459490517683e-144</v>
+        <v>4.102038872660453e-144</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>3.688276283218592e-144</v>
+        <v>3.703481901724673e-144</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>3.350154753555149e-144</v>
+        <v>3.365230674930625e-144</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>3.065309099731023e-144</v>
+        <v>3.079633171849374e-144</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>2.825953519949137e-144</v>
+        <v>2.839037372051242e-144</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>2.62430221241337e-144</v>
+        <v>2.635791255107509e-144</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>2.452569375326796e-144</v>
+        <v>2.462242800588644e-144</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>2.302969206893045e-144</v>
+        <v>2.310739988065677e-144</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>2.167717542178602e-144</v>
+        <v>2.173632403721743e-144</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>2.040742532528904e-144</v>
+        <v>2.044950304821006e-144</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>1.920926493387687e-144</v>
+        <v>1.923586555164228e-144</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>1.808042509170912e-144</v>
+        <v>1.80930832528505e-144</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>1.701863664294237e-144</v>
+        <v>1.701882785716804e-144</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>1.602163043173631e-144</v>
+        <v>1.60107710699314e-144</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>1.508713730225034e-144</v>
+        <v>1.506658459647678e-144</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>1.421288809864142e-144</v>
+        <v>1.418394014213788e-144</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>1.339661366506905e-144</v>
+        <v>1.336050941225099e-144</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>1.263604484569248e-144</v>
+        <v>1.259396411215217e-144</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>1.192891248466899e-144</v>
+        <v>1.188197594717545e-144</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>1.12729474261579e-144</v>
+        <v>1.122221662265695e-144</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>1.066588051431835e-144</v>
+        <v>1.061235784393259e-144</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>1.010544259330788e-144</v>
+        <v>1.005007131633667e-144</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>9.589364507286113e-145</v>
+        <v>9.533028745205627e-145</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>9.115377100410748e-145</v>
+        <v>9.058901835873922e-145</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>8.681211216840889e-145</v>
+        <v>8.625362293677444e-145</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>8.284597700735496e-145</v>
+        <v>8.230081823951935e-145</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>7.923267396252474e-145</v>
+        <v>7.870732132032084e-145</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>7.594951147550824e-145</v>
+        <v>7.544984923253671e-145</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>7.297379798789413e-145</v>
+        <v>7.250511902952341e-145</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>7.028284194126336e-145</v>
+        <v>6.984984776462977e-145</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>6.785395177720487e-145</v>
+        <v>6.746075249121252e-145</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>6.566443593730678e-145</v>
+        <v>6.531455026262754e-145</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>6.369160286315134e-145</v>
+        <v>6.338795813222501e-145</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>6.191276099632836e-145</v>
+        <v>6.165769315336244e-145</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>6.030521877842087e-145</v>
+        <v>6.010047237939078e-145</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>5.884628465101672e-145</v>
+        <v>5.869301286366563e-145</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>5.751326705570333e-145</v>
+        <v>5.741203165954219e-145</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>5.628347443406443e-145</v>
+        <v>5.623424582037211e-145</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>5.513421522768756e-145</v>
+        <v>5.513637239951067e-145</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>5.404279787815984e-145</v>
+        <v>5.40951284503128e-145</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>5.298653082706554e-145</v>
+        <v>5.308723102613063e-145</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>5.194272251599186e-145</v>
+        <v>5.208939718031916e-145</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>5.088868138652597e-145</v>
+        <v>5.107834396623332e-145</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>4.980171588025219e-145</v>
+        <v>5.003078843722534e-145</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>4.865913443875872e-145</v>
+        <v>4.892344764665115e-145</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>4.743824550362973e-145</v>
+        <v>4.773303864786281e-145</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>4.611635775261193e-145</v>
+        <v>4.643627873655928e-145</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>4.467755782461473e-145</v>
+        <v>4.501684066889484e-145</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>4.313043576445099e-145</v>
+        <v>4.348354229505566e-145</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>4.148911701217624e-145</v>
+        <v>4.185088181980517e-145</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>3.976772700785162e-145</v>
+        <v>4.013335744791245e-145</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>3.79803911915323e-145</v>
+        <v>3.834546738414061e-145</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>3.614123500327803e-145</v>
+        <v>3.65017098332573e-145</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>3.42643838831488e-145</v>
+        <v>3.461658300003046e-145</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>3.236396327119945e-145</v>
+        <v>3.270458508922283e-145</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>3.045409860748995e-145</v>
+        <v>3.07802143056023e-145</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>2.854891533208024e-145</v>
+        <v>2.885796885393678e-145</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>2.666253888502514e-145</v>
+        <v>2.695234693898897e-145</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>2.480909470638462e-145</v>
+        <v>2.507784676552677e-145</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>2.300270823621855e-145</v>
+        <v>2.324896653831801e-145</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>2.125750491458192e-145</v>
+        <v>2.148020446212557e-145</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>1.958761018153612e-145</v>
+        <v>1.978605874171878e-145</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>1.800714947713636e-145</v>
+        <v>1.818102758186076e-145</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>1.653024824144245e-145</v>
+        <v>1.667960918731927e-145</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>1.517039700227144e-145</v>
+        <v>1.529566267944743e-145</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>1.392993937467501e-145</v>
+        <v>1.403182703515548e-145</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>1.28017092065518e-145</v>
+        <v>1.28811689880499e-145</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>1.177823545462763e-145</v>
+        <v>1.183644837752617e-145</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>1.085204707562558e-145</v>
+        <v>1.089042504297699e-145</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>1.001567302627154e-145</v>
+        <v>1.00358588237979e-145</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>9.261642263291091e-146</v>
+        <v>9.265509559384154e-146</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>8.582483743407803e-146</v>
+        <v>8.572137089128926e-146</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>7.970726423347844e-146</v>
+        <v>7.94850125242806e-146</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>7.418899259835041e-146</v>
+        <v>7.387361888675003e-146</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>6.919531209594906e-146</v>
+        <v>6.881478837264923e-146</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>6.465151229352755e-146</v>
+        <v>6.423611937592782e-146</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>6.0482882758327e-146</v>
+        <v>6.006521029052333e-146</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>5.661471305760102e-146</v>
+        <v>5.622965951038583e-146</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>5.297242884805658e-146</v>
+        <v>5.26571818483317e-146</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>4.950481706525082e-146</v>
+        <v>4.929547671949294e-146</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>4.621031866631898e-146</v>
+        <v>4.613472048904643e-146</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>4.309372654011507e-146</v>
+        <v>4.317052333553822e-146</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>4.015983357548469e-146</v>
+        <v>4.039849543750642e-146</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>3.741343266128435e-146</v>
+        <v>3.781424697349949e-146</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>3.485931668636036e-146</v>
+        <v>3.541338812205626e-146</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>3.25022785395665e-146</v>
+        <v>3.319152906172262e-146</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>3.034711110975403e-146</v>
+        <v>3.114427997104201e-146</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>2.839814587611206e-146</v>
+        <v>2.926699136069821e-146</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>2.664518759630869e-146</v>
+        <v>2.754683852744568e-146</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>2.506093573440519e-146</v>
+        <v>2.596137040917461e-146</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>2.361710831024485e-146</v>
+        <v>2.448758361567652e-146</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>2.228542334367528e-146</v>
+        <v>2.310247475674725e-146</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>2.103759885454367e-146</v>
+        <v>2.178304044218233e-146</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>1.984535286269394e-146</v>
+        <v>2.05062772817738e-146</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>1.868134777300052e-146</v>
+        <v>1.925020510860926e-146</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>1.753420536330344e-146</v>
+        <v>1.801013543414327e-146</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>1.640584097049985e-146</v>
+        <v>1.679578308931321e-146</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>1.529857556461767e-146</v>
+        <v>1.561730240087164e-146</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>1.421473011568473e-146</v>
+        <v>1.448484769557101e-146</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>1.315768090683936e-146</v>
+        <v>1.340703167142372e-146</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>1.213552613064807e-146</v>
+        <v>1.238556913882452e-146</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>1.115768411876856e-146</v>
+        <v>1.142024641477256e-146</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>1.023357326439805e-146</v>
+        <v>1.051084972637531e-146</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>9.370785119300625e-147</v>
+        <v>9.656899980222767e-147</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>8.568767076451395e-147</v>
+        <v>8.856735269559814e-147</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>7.824697876784832e-147</v>
+        <v>8.108364200945487e-147</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>7.135756165167227e-147</v>
+        <v>7.409795366986254e-147</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>6.499120586463029e-147</v>
+        <v>6.759037360286706e-147</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>5.911969785538579e-147</v>
+        <v>6.154098773453353e-147</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>5.371482407260027e-147</v>
+        <v>5.592988199092527e-147</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>4.8748370964921e-147</v>
+        <v>5.073714229809078e-147</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>4.419212498101387e-147</v>
+        <v>4.594285458209795e-147</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>4.001787256952761e-147</v>
+        <v>4.15271047689967e-147</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>3.619740017912341e-147</v>
+        <v>3.746997878485007e-147</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>3.270249425845818e-147</v>
+        <v>3.375156255571657e-147</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>2.95049412561916e-147</v>
+        <v>3.035194200765767e-147</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>2.657684769230361e-147</v>
+        <v>2.725129521749213e-147</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>2.389804919977697e-147</v>
+        <v>2.443202552755018e-147</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>2.145632036172624e-147</v>
+        <v>2.187882195922906e-147</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>1.923979780947234e-147</v>
+        <v>1.957647777013364e-147</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>1.723661817433538e-147</v>
+        <v>1.750978621786787e-147</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>1.543491808763014e-147</v>
+        <v>1.566354056003022e-147</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>1.382283418067693e-147</v>
+        <v>1.402253405422486e-147</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>1.238850308479534e-147</v>
+        <v>1.257155995805519e-147</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>1.112006143130121e-147</v>
+        <v>1.12954115291208e-147</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>1.000564585151428e-147</v>
+        <v>1.017888202502528e-147</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>9.033392976753773e-148</v>
+        <v>9.20676470337162e-148</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>8.191439438336338e-148</v>
+        <v>8.363852821760279e-148</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>7.467921867581906e-148</v>
+        <v>7.634939637794993e-148</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>6.851687350544497e-148</v>
+        <v>7.00623421438392e-148</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>6.335607682078913e-148</v>
+        <v>6.471966117055332e-148</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>5.913970261142247e-148</v>
+        <v>6.029185949325076e-148</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>5.581064051210821e-148</v>
+        <v>5.674947432508371e-148</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>5.331178015762127e-148</v>
+        <v>5.406304287921677e-148</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>5.158601118273359e-148</v>
+        <v>5.220310236881145e-148</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>5.057622322221281e-148</v>
+        <v>5.114019000702459e-148</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>5.022530591083156e-148</v>
+        <v>5.084484300701843e-148</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>5.04761499938622e-148</v>
+        <v>5.128759958008808e-148</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>5.147211417168699e-148</v>
+        <v>5.26191814858137e-148</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>5.411626338847121e-148</v>
+        <v>5.567314563607363e-148</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>5.947747137791969e-148</v>
+        <v>6.143107549417649e-148</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>6.771169270006998e-148</v>
+        <v>6.998906641596164e-148</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>7.752090649209017e-148</v>
+        <v>8.003292686370953e-148</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>8.747735284408223e-148</v>
+        <v>9.012262460474795e-148</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>9.615327184612099e-148</v>
+        <v>9.881812740637672e-148</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>1.02120903588286e-147</v>
+        <v>1.04679403035901e-147</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>1.039703440670463e-147</v>
+        <v>1.062848104826701e-147</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>1.014301758166389e-147</v>
+        <v>1.033853268185301e-147</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>9.603335869988393e-148</v>
+        <v>9.759040122979674e-148</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>8.947280523560372e-148</v>
+        <v>9.067423089984043e-148</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>8.344142794264006e-148</v>
+        <v>8.441101301205217e-148</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>7.947303250662073e-148</v>
+        <v>8.040588183469385e-148</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>7.755670804071109e-148</v>
+        <v>7.862259469756403e-148</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>7.681290020131657e-148</v>
+        <v>7.810191026320457e-148</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>7.63523744207407e-148</v>
+        <v>7.787430123174599e-148</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>7.528589613128631e-148</v>
+        <v>7.697024030331886e-148</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>7.279245472098074e-148</v>
+        <v>7.449501141768412e-148</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>6.881849091337398e-148</v>
+        <v>7.039545021235433e-148</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>6.379366074678738e-148</v>
+        <v>6.51482639267299e-148</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>5.81551550866242e-148</v>
+        <v>5.923842214367143e-148</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>5.23401647982721e-148</v>
+        <v>5.315089444602311e-148</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>4.678176369519999e-148</v>
+        <v>4.736601241987382e-148</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>4.172420543950478e-148</v>
+        <v>4.215139543235888e-148</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>3.714838220227642e-148</v>
+        <v>3.747797731820794e-148</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>3.301564150674799e-148</v>
+        <v>3.32946742123218e-148</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>2.928733087615095e-148</v>
+        <v>2.955040224959944e-148</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>2.592479783370692e-148</v>
+        <v>2.619407756492998e-148</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>2.288938990265032e-148</v>
+        <v>2.31746162932154e-148</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>2.014275963916423e-148</v>
+        <v>2.044140595982035e-148</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>1.765720926440121e-148</v>
+        <v>1.796029182180902e-148</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>1.541821413833452e-148</v>
+        <v>1.571747658270417e-148</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>1.341206651381752e-148</v>
+        <v>1.370042535230375e-148</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>1.162505864370972e-148</v>
+        <v>1.189660324041182e-148</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>1.004348278086983e-148</v>
+        <v>1.029347535683172e-148</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>8.653631178152392e-149</v>
+        <v>8.878506811362525e-149</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>7.441796088416307e-149</v>
+        <v>7.639162713807739e-149</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>6.394269764519819e-149</v>
+        <v>6.562908173970218e-149</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>5.497344459318438e-149</v>
+        <v>5.637208301649998e-149</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>4.737312425671185e-149</v>
+        <v>4.849528206650734e-149</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>4.100465916434078e-149</v>
+        <v>4.187332998772977e-149</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>3.573097184465245e-149</v>
+        <v>3.638087787819461e-149</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>3.141517215176307e-149</v>
+        <v>3.18924391869616e-149</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>2.792545133303824e-149</v>
+        <v>2.82787934969793e-149</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>2.513555256423374e-149</v>
+        <v>2.540664077043897e-149</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>2.291950068511946e-149</v>
+        <v>2.314247399959984e-149</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>2.115132053545612e-149</v>
+        <v>2.135278617671172e-149</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>1.970503695501059e-149</v>
+        <v>1.990407029403069e-149</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>1.845467478354856e-149</v>
+        <v>1.866281934381159e-149</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>1.727425886083251e-149</v>
+        <v>1.749552631830608e-149</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>1.603786663850404e-149</v>
+        <v>1.6268739492715e-149</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>1.466140514679174e-149</v>
+        <v>1.489296038081642e-149</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>1.317776905942405e-149</v>
+        <v>1.340161752503759e-149</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>1.16401483466337e-149</v>
+        <v>1.184946514306653e-149</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>1.010173297865366e-149</v>
+        <v>1.029125745259148e-149</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>8.615712925712668e-150</v>
+        <v>8.781748671296452e-150</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>7.235278158044868e-150</v>
+        <v>7.375693016870913e-150</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>6.013618645879309e-150</v>
+        <v>6.12784470699914e-150</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>5.003924359448852e-150</v>
+        <v>5.092957959369307e-150</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>4.259385268985608e-150</v>
+        <v>4.325786991668825e-150</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>3.833191344719759e-150</v>
+        <v>3.881086021583117e-150</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>3.778532556883676e-150</v>
+        <v>3.813609266799862e-150</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>4.148598875708387e-150</v>
+        <v>4.178110945005375e-150</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>4.996580271426087e-150</v>
+        <v>5.029345273887123e-150</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>6.367027311536114e-150</v>
+        <v>6.413189415031873e-150</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>8.196384993383992e-150</v>
+        <v>8.264441183371106e-150</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>1.034752778784105e-149</v>
+        <v>1.044230408355032e-149</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>1.268192009502112e-149</v>
+        <v>1.280453276112068e-149</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>1.506102631504597e-149</v>
+        <v>1.520888186164134e-149</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>1.734631084803098e-149</v>
+        <v>1.751310603066502e-149</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>1.935683564115049e-149</v>
+        <v>1.953219963267311e-149</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>2.052403776541161e-149</v>
+        <v>2.069026104605413e-149</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>2.007161542406662e-149</v>
+        <v>2.02018967033654e-149</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>1.830803979169667e-149</v>
+        <v>1.838442323028511e-149</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>1.778336485031726e-149</v>
+        <v>1.783312691670845e-149</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>1.804023489616e-149</v>
+        <v>1.808515848351566e-149</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>1.824943758447925e-149</v>
+        <v>1.829958147967412e-149</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>1.765726413775923e-149</v>
+        <v>1.771164004538925e-149</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>1.630592503763921e-149</v>
+        <v>1.635963441430329e-149</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>1.471477393611824e-149</v>
+        <v>1.476328642908705e-149</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>1.340509456278599e-149</v>
+        <v>1.344432470978638e-149</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>1.255757518438803e-149</v>
+        <v>1.258528631370293e-149</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>1.179578291372348e-149</v>
+        <v>1.181378939203813e-149</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>1.093626081864949e-149</v>
+        <v>1.094800956262024e-149</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>1.000439913716466e-149</v>
+        <v>1.001273976497514e-149</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>9.032128928466196e-150</v>
+        <v>9.039243923879999e-150</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>8.051381251753834e-150</v>
+        <v>8.058785964114482e-150</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>7.094087166227347e-150</v>
+        <v>7.102629810458305e-150</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>6.192177731083908e-150</v>
+        <v>6.202039387688581e-150</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>5.376103625207757e-150</v>
+        <v>5.386829641951374e-150</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>4.655082835958778e-150</v>
+        <v>4.666033213635985e-150</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>4.022445615637303e-150</v>
+        <v>4.033132017148057e-150</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>3.471139088213543e-150</v>
+        <v>3.481232965443672e-150</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>2.994110377657419e-150</v>
+        <v>3.00344297147862e-150</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>2.584306607937597e-150</v>
+        <v>2.592868948207435e-150</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>2.234674903024352e-150</v>
+        <v>2.242617808586263e-150</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>1.938162386886577e-150</v>
+        <v>1.945796465569865e-150</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>1.687718055479953e-150</v>
+        <v>1.695513273048794e-150</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>1.476821700629482e-150</v>
+        <v>1.485285157586821e-150</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>1.30021110432411e-150</v>
+        <v>1.309597366026487e-150</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>1.152806306497665e-150</v>
+        <v>1.163075435706432e-150</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>1.029527347083867e-150</v>
+        <v>1.040344903965189e-150</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>9.253802737966623e-151</v>
+        <v>9.361319322327451e-151</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>8.368167624538923e-151</v>
+        <v>8.46853982587386e-151</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>7.614885320341962e-151</v>
+        <v>7.703324976819694e-151</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>6.970836579464263e-151</v>
+        <v>7.044314550743333e-151</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>6.412902155996912e-151</v>
+        <v>6.470148323225772e-151</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>5.917962804028794e-151</v>
+        <v>5.959466069845741e-151</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>5.462899277650321e-151</v>
+        <v>5.490907566183545e-151</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>5.025984310383565e-151</v>
+        <v>5.044347355231155e-151</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>4.599671824564407e-151</v>
+        <v>4.612239526350106e-151</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>4.184696633554345e-151</v>
+        <v>4.194383805012507e-151</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>3.781897322202922e-151</v>
+        <v>3.79067196808776e-151</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>3.392112475358598e-151</v>
+        <v>3.40099579244418e-151</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>3.016203379719974e-151</v>
+        <v>3.025272138998185e-151</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>2.658517977449772e-151</v>
+        <v>2.667270393162255e-151</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>2.330615410977871e-151</v>
+        <v>2.338727841382223e-151</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>2.044237439352442e-151</v>
+        <v>2.051647251063612e-151</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>1.801263324273804e-151</v>
+        <v>1.808017924509159e-151</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>1.5963567345222e-151</v>
+        <v>1.602503120185756e-151</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>1.424016235578413e-151</v>
+        <v>1.429598465982641e-151</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>1.278740392923342e-151</v>
+        <v>1.283799589789178e-151</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>1.15502777203751e-151</v>
+        <v>1.15960211949435e-151</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>1.047376938401932e-151</v>
+        <v>1.051501682987629e-151</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>9.503143778398855e-152</v>
+        <v>9.540218381126831e-152</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>8.60254515298389e-152</v>
+        <v>8.635747317836576e-152</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>7.766674271651975e-152</v>
+        <v>7.796292143017973e-152</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>6.993017628811093e-152</v>
+        <v>7.019328049236587e-152</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>6.279061718871534e-152</v>
+        <v>6.302330229060295e-152</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>5.622293036243351e-152</v>
+        <v>5.642773875056745e-152</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>5.020198075334861e-152</v>
+        <v>5.038134179791833e-152</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>4.470263330556174e-152</v>
+        <v>4.485886335833263e-152</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>3.969975296317218e-152</v>
+        <v>3.983505535748552e-152</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>3.516820467026588e-152</v>
+        <v>3.528466972103878e-152</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>3.108285337094598e-152</v>
+        <v>3.118245837467149e-152</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>2.74185640093001e-152</v>
+        <v>2.750317324404711e-152</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>2.415020152942709e-152</v>
+        <v>2.422156625484038e-152</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>2.125263087542434e-152</v>
+        <v>2.131238933272457e-152</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>1.870071699138161e-152</v>
+        <v>1.875039440336533e-152</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>1.646932482139661e-152</v>
+        <v>1.651033339243625e-152</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>1.453331930956593e-152</v>
+        <v>1.456695822560979e-152</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>1.286756539998103e-152</v>
+        <v>1.289502082855332e-152</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>1.144692803673877e-152</v>
+        <v>1.146927312693953e-152</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>1.024627216393507e-152</v>
+        <v>1.026446704644027e-152</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>9.240462725662738e-153</v>
+        <v>9.255354512724213e-153</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>8.404364666018598e-153</v>
+        <v>8.416687451464058e-153</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>7.712842929096109e-153</v>
+        <v>7.723217788329152e-153</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>7.140762458991054e-153</v>
+        <v>7.149697448991156e-153</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>6.662988199798385e-153</v>
+        <v>6.670878359120902e-153</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>6.254385095613398e-153</v>
+        <v>6.261512444389573e-153</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>5.889818090530331e-153</v>
+        <v>5.896351630467281e-153</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>5.547062255195497e-153</v>
+        <v>5.553071066446828e-153</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>5.220099403698955e-153</v>
+        <v>5.225625582456326e-153</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>4.908520024942126e-153</v>
+        <v>4.913603924979547e-153</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>4.611920027587462e-153</v>
+        <v>4.616600284652647e-153</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>4.329895320296627e-153</v>
+        <v>4.334208852110987e-153</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>4.06204181173209e-153</v>
+        <v>4.06602381799074e-153</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>3.807955410556272e-153</v>
+        <v>3.811639372928026e-153</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>3.567232025430912e-153</v>
+        <v>3.570649707558283e-153</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>3.33946756501844e-153</v>
+        <v>3.342649012517645e-153</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>3.124257937981243e-153</v>
+        <v>3.127231478442196e-153</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>2.921199052981129e-153</v>
+        <v>2.923991295967448e-153</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>2.729886818680659e-153</v>
+        <v>2.732522655729661e-153</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>2.549917143741688e-153</v>
+        <v>2.552419748364391e-153</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>2.380885936826587e-153</v>
+        <v>2.383276764507711e-153</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>2.222389106597693e-153</v>
+        <v>2.224687894795657e-153</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>2.074022561716918e-153</v>
+        <v>2.07624732986384e-153</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>1.935382210846603e-153</v>
+        <v>1.937549260348306e-153</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>1.806063962649059e-153</v>
+        <v>1.808187876885063e-153</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>1.685663725786249e-153</v>
+        <v>1.687757370109776e-153</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>1.57377740892049e-153</v>
+        <v>1.575851930658462e-153</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>1.470000920714069e-153</v>
+        <v>1.47206574916711e-153</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>1.373930169828995e-153</v>
+        <v>1.375993016271429e-153</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>1.285161064927639e-153</v>
+        <v>1.28722792260749e-153</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>1.203289514672037e-153</v>
+        <v>1.205364658811031e-153</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>1.127911427724469e-153</v>
+        <v>1.129997415518032e-153</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>1.058622712747192e-153</v>
+        <v>1.060720383364449e-153</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>9.950192784022767e-154</v>
+        <v>9.971277529860564e-154</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>9.366970333519857e-154</v>
+        <v>9.388137150188153e-154</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>8.832518862585607e-154</v>
+        <v>8.853724600986687e-154</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>8.342797457841025e-154</v>
+        <v>8.363981788614182e-154</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>7.893765205908576e-154</v>
+        <v>7.914850619430111e-154</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>7.481381193410587e-154</v>
+        <v>7.502272999793798e-154</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>7.101604506968276e-154</v>
+        <v>7.122190836063478e-154</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>6.750394233204302e-154</v>
+        <v>6.770546034598811e-154</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>6.423709458739998e-154</v>
+        <v>6.443280501758141e-154</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>6.117969694820675e-154</v>
+        <v>6.136802230837616e-154</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>5.831769984638829e-154</v>
+        <v>5.849721501828329e-154</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>5.564347308269158e-154</v>
+        <v>5.581298426159824e-154</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>5.314938738829429e-154</v>
+        <v>5.330793209448975e-154</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>5.082781349438338e-154</v>
+        <v>5.09746605731358e-154</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>4.867112213213715e-154</v>
+        <v>4.880577175370575e-154</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>4.667168403274025e-154</v>
+        <v>4.679386769237527e-154</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>4.482186992737672e-154</v>
+        <v>4.493155044531946e-154</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>4.311405054722573e-154</v>
+        <v>4.321142206870852e-154</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>4.154059662347146e-154</v>
+        <v>4.16260846187177e-154</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>4.009387888729764e-154</v>
+        <v>4.016814015152175e-154</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>3.876615521587836e-154</v>
+        <v>3.883006897915843e-154</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>3.754766764028095e-154</v>
+        <v>3.760217676833366e-154</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>3.642691991037823e-154</v>
+        <v>3.647289397064053e-154</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>3.539235881720563e-154</v>
+        <v>3.543058959187578e-154</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>3.443243115180248e-154</v>
+        <v>3.446363263784005e-154</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>3.353558370520445e-154</v>
+        <v>3.356039211433034e-154</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>3.269026326844992e-154</v>
+        <v>3.27092370271463e-154</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>3.1884916632577e-154</v>
+        <v>3.189853638208741e-154</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>3.11079905886217e-154</v>
+        <v>3.111665918495094e-154</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>3.034793192762217e-154</v>
+        <v>3.03519744415364e-154</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>2.959318744061655e-154</v>
+        <v>2.959285115764319e-154</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>2.88322039186409e-154</v>
+        <v>2.882765833906873e-154</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>2.805342815273333e-154</v>
+        <v>2.804476499161241e-154</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>2.724530693393205e-154</v>
+        <v>2.723254012107376e-154</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>2.639628705327301e-154</v>
+        <v>2.637935273325004e-154</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>2.550007049422667e-154</v>
+        <v>2.547885871301397e-154</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>2.457460474194079e-154</v>
+        <v>2.454910563728164e-154</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>2.364482480355435e-154</v>
+        <v>2.361517073683344e-154</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>2.273566633843552e-154</v>
+        <v>2.270213189861158e-154</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>2.187206500594998e-154</v>
+        <v>2.18350670095558e-154</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>2.107895646546595e-154</v>
+        <v>2.103905395660838e-154</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>2.038127637635134e-154</v>
+        <v>2.033917062671129e-154</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>1.980396039797227e-154</v>
+        <v>1.976049490680468e-154</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>1.937190091880559e-154</v>
+        <v>1.932806110583604e-154</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>1.90965860919975e-154</v>
+        <v>1.905340416448659e-154</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>1.895719090771306e-154</v>
+        <v>1.891551652652008e-154</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>1.892811910539083e-154</v>
+        <v>1.888858552231197e-154</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>1.898377442446899e-154</v>
+        <v>1.894679848223726e-154</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>1.909856060438591e-154</v>
+        <v>1.906434273667122e-154</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>1.924688138457984e-154</v>
+        <v>1.921540561598896e-154</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>1.940314050448888e-154</v>
+        <v>1.937417445056547e-154</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>1.954174170355161e-154</v>
+        <v>1.951483657077616e-154</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>1.963801895457396e-154</v>
+        <v>1.961252943000592e-154</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>1.967865743880617e-154</v>
+        <v>1.965398439420608e-154</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>1.965792914760545e-154</v>
+        <v>1.963368185565145e-154</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>1.957024490015432e-154</v>
+        <v>1.954624400276804e-154</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>1.941001551563503e-154</v>
+        <v>1.938629302398158e-154</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>1.917165181323006e-154</v>
+        <v>1.914845110771801e-154</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>1.884956461212214e-154</v>
+        <v>1.882734044240354e-154</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>1.843816473149313e-154</v>
+        <v>1.841758321646351e-154</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>1.793186299052569e-154</v>
+        <v>1.791380161832404e-154</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>1.73257472823248e-154</v>
+        <v>1.731127042232311e-154</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>1.662454445401098e-154</v>
+        <v>1.661455474080727e-154</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>1.584015755354066e-154</v>
+        <v>1.583513634235742e-154</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>1.498466067207701e-154</v>
+        <v>1.498466185257129e-154</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>1.40701279007853e-154</v>
+        <v>1.407477789704864e-154</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>1.3108633330831e-154</v>
+        <v>1.311713110138946e-154</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>1.211225329617959e-154</v>
+        <v>1.212337044356532e-154</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>1.109670308729353e-154</v>
+        <v>1.110896163831739e-154</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>1.008873689528473e-154</v>
+        <v>1.010094860365527e-154</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>9.117194268735831e-155</v>
+        <v>9.128562494656033e-155</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>8.210914753939719e-155</v>
+        <v>8.22103446408401e-155</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>7.392520083931508e-155</v>
+        <v>7.401315481191591e-155</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>6.660293800503901e-155</v>
+        <v>6.667774190060867e-155</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>6.006565318965757e-155</v>
+        <v>6.012765383051181e-155</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>5.423664054623426e-155</v>
+        <v>5.428643852519369e-155</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>4.903919422785047e-155</v>
+        <v>4.907764390824051e-155</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>4.439660838758149e-155</v>
+        <v>4.44248179032324e-155</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>4.023217717850604e-155</v>
+        <v>4.025150843375292e-155</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>3.646919475369191e-155</v>
+        <v>3.648126342337468e-155</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>3.303095526622124e-155</v>
+        <v>3.303763079568468e-155</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>2.984845576962949e-155</v>
+        <v>2.985179150414466e-155</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>2.689704743870866e-155</v>
+        <v>2.689887830124033e-155</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>2.416792449920229e-155</v>
+        <v>2.416972328309494e-155</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>2.165230094958665e-155</v>
+        <v>2.165517813921223e-155</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>1.934139078834553e-155</v>
+        <v>1.93460945591034e-155</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>1.722640801396196e-155</v>
+        <v>1.723332423227891e-155</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>1.529856662491333e-155</v>
+        <v>1.53077188482436e-155</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>1.354908061968284e-155</v>
+        <v>1.35601300965081e-155</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>1.196915384465e-155</v>
+        <v>1.198140131606739e-155</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>1.054900580843603e-155</v>
+        <v>1.056156618833297e-155</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>9.277063240909344e-156</v>
+        <v>9.289183761747795e-156</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>8.141562577423835e-156</v>
+        <v>8.152656559826104e-156</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>7.130740253336902e-156</v>
+        <v>7.140387106085618e-156</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>6.232832704005496e-156</v>
+        <v>6.240777924043612e-156</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>5.436076364784192e-156</v>
+        <v>5.44223153721499e-156</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>4.728707671030036e-156</v>
+        <v>4.733150469117123e-156</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>4.098963058099753e-156</v>
+        <v>4.101937243267063e-156</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>3.535251870902058e-156</v>
+        <v>3.537162010986674e-156</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>3.03008325377878e-156</v>
+        <v>3.031369489325707e-156</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>2.580135601763789e-156</v>
+        <v>2.581146290841647e-156</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>2.182274110924321e-156</v>
+        <v>2.183260123044816e-156</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>1.833363977329142e-156</v>
+        <v>1.834478693447066e-156</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>1.530270397045667e-156</v>
+        <v>1.531569709558901e-156</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>1.269858566142278e-156</v>
+        <v>1.271300878891789e-156</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>1.048993680687198e-156</v>
+        <v>1.050439908957041e-156</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>8.64540936748076e-157</v>
+        <v>8.65754507265393e-157</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>7.13725700909462e-157</v>
+        <v>7.144219800332302e-157</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>5.953289919269349e-157</v>
+        <v>5.953887763854555e-157</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>5.085517413567152e-157</v>
+        <v>5.080788851999695e-157</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>4.525315444536169e-157</v>
+        <v>4.518495679425691e-157</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>4.223174000421414e-157</v>
+        <v>4.217505454892025e-157</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>4.073327813942524e-157</v>
+        <v>4.068990601304811e-157</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>4.020718135260834e-157</v>
+        <v>4.017180276870411e-157</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>4.032550281322538e-157</v>
+        <v>4.029616098847578e-157</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>4.076083403700222e-157</v>
+        <v>4.073896054139277e-157</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>4.11894914743588e-157</v>
+        <v>4.117975926685288e-157</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>4.137385137564568e-157</v>
+        <v>4.138077938345475e-157</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>4.116256495199949e-157</v>
+        <v>4.118711416085343e-157</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>4.040805138150711e-157</v>
+        <v>4.044747617352501e-157</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>3.896272984225341e-157</v>
+        <v>3.901057799594369e-157</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>3.667917051006067e-157</v>
+        <v>3.67252853866073e-157</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>3.356688034027035e-157</v>
+        <v>3.359967316089166e-157</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>3.008907861989843e-157</v>
+        <v>3.010209773700095e-157</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>2.679049787349568e-157</v>
+        <v>2.678360899550513e-157</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>2.419062020008947e-157</v>
+        <v>2.416978528388975e-157</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>2.233517846822053e-157</v>
+        <v>2.230830729255481e-157</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>2.084893291828173e-157</v>
+        <v>2.082219680009096e-157</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>1.934199486599061e-157</v>
+        <v>1.931969838582248e-157</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>1.750738536316184e-157</v>
+        <v>1.749211210300929e-157</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>1.538909755070872e-157</v>
+        <v>1.538232702895691e-157</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>1.312397934439949e-157</v>
+        <v>1.312625023494606e-157</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>1.084887925107289e-157</v>
+        <v>1.085978938436688e-157</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>8.700645777567701e-158</v>
+        <v>8.718852140609572e-158</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>6.816116603397155e-158</v>
+        <v>6.839335422995688e-158</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>5.29330760524928e-158</v>
+        <v>5.318612869035929e-158</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>4.104185270266914e-158</v>
+        <v>4.128977985949243e-158</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>3.195178163553316e-158</v>
+        <v>3.217382733267439e-158</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>2.512714850215062e-158</v>
+        <v>2.530779070525641e-158</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>2.003223895357914e-158</v>
+        <v>2.01611895725816e-158</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>1.613133864086356e-158</v>
+        <v>1.620354352998022e-158</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>1.288873836022044e-158</v>
+        <v>1.290437739607655e-158</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>1.000885957982016e-158</v>
+        <v>9.976981133481355e-159</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>7.8382775144757e-159</v>
+        <v>7.782125875995282e-159</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>6.320681791165853e-159</v>
+        <v>6.260506369642925e-159</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>5.306493694548182e-159</v>
+        <v>5.256427895523394e-159</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>4.646134509277808e-159</v>
+        <v>4.614195734733398e-159</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>4.190025520013051e-159</v>
+        <v>4.178115168372802e-159</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>3.809028201230993e-159</v>
+        <v>3.813849844652656e-159</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>3.470915166262488e-159</v>
+        <v>3.488327817796752e-159</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>3.17215102760053e-159</v>
+        <v>3.198457991359948e-159</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>2.909204802239058e-159</v>
+        <v>2.941153871249144e-159</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>2.678545507172835e-159</v>
+        <v>2.713328963372039e-159</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>2.476642159396504e-159</v>
+        <v>2.511896773636223e-159</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>2.299963775904184e-159</v>
+        <v>2.333770807948758e-159</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>2.144979373690543e-159</v>
+        <v>2.175864572217257e-159</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>2.008157969750175e-159</v>
+        <v>2.035091572349261e-159</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>1.885968581077309e-159</v>
+        <v>1.90836531425194e-159</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>1.774880224666652e-159</v>
+        <v>1.792599303832951e-159</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>1.671367010971243e-159</v>
+        <v>1.684711407727974e-159</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>1.572881817211488e-159</v>
+        <v>1.582457456774306e-159</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>1.479013625738507e-159</v>
+        <v>1.485422093013284e-159</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>1.389633203969554e-159</v>
+        <v>1.393431206764981e-159</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>1.304611319322137e-159</v>
+        <v>1.306310688349731e-159</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>1.223818739213752e-159</v>
+        <v>1.223886428087854e-159</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>1.147126231061673e-159</v>
+        <v>1.145984316299448e-159</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>1.074404562283398e-159</v>
+        <v>1.072430243304836e-159</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>1.005524500296411e-159</v>
+        <v>1.003050099424326e-159</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>9.403568125180103e-160</v>
+        <v>9.376697749780385e-160</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>8.787722663657354e-160</v>
+        <v>8.761151602863389e-160</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>8.206416292568982e-160</v>
+        <v>8.182121456693631e-160</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>7.658356686089785e-160</v>
+        <v>7.637866214474147e-160</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>7.142251518394436e-160</v>
+        <v>7.12664477940785e-160</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>6.656808463656233e-160</v>
+        <v>6.646716054696284e-160</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>6.200735196049882e-160</v>
+        <v>6.196338943542393e-160</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>5.772739389749978e-160</v>
+        <v>5.773772349149008e-160</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>5.371528718929981e-160</v>
+        <v>5.377275174717842e-160</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>4.99581085776451e-160</v>
+        <v>5.005106323451745e-160</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>4.644500267542061e-160</v>
+        <v>4.655836088249144e-160</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>4.317465198326934e-160</v>
+        <v>4.329471021700932e-160</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>4.014848709611957e-160</v>
+        <v>4.026431497271767e-160</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>3.736793886405711e-160</v>
+        <v>3.747137926849688e-160</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>3.483443813717604e-160</v>
+        <v>3.492010722323565e-160</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>3.254941576556761e-160</v>
+        <v>3.261470295581982e-160</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>3.051430259932477e-160</v>
+        <v>3.055937058513699e-160</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>2.873052948853512e-160</v>
+        <v>2.875831423006931e-160</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>2.719952728329311e-160</v>
+        <v>2.721573800950587e-160</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>2.592272683368724e-160</v>
+        <v>2.593584604232974e-160</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>2.490155898981024e-160</v>
+        <v>2.492284244742828e-160</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>2.413745460175392e-160</v>
+        <v>2.418093134368789e-160</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>2.363184451960816e-160</v>
+        <v>2.371431684999309e-160</v>
       </c>
     </row>
   </sheetData>
